--- a/outputs/fft-o__Bacteroidales_large_pruned_combined.xlsx
+++ b/outputs/fft-o__Bacteroidales_large_pruned_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58180FB3-F1C5-F04C-A09B-798C031E6BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B1CC21-C3F0-134C-B58E-355651053486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__C941_wrapper-LSVM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="51">
   <si>
     <t>f__Bacteroidaceae-f__Dysgonomonadaceae</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>f__Paludibacteraceae-f__UBA932</t>
+  </si>
+  <si>
+    <t>d = 0.05, threshould |f(x)| by 0.9</t>
   </si>
 </sst>
 </file>
@@ -533,437 +536,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>-4.5920930152162924</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>2.4750388407748938</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2">
-        <v>-3.894568512830288</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>-1.134563930190531</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>1.734716152244637</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2">
-        <v>2.0253022656484601</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2">
-        <v>1.6888527381424061</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2">
-        <v>-2.043675948068898</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2">
-        <v>-2.5161705598886441</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2">
-        <v>8.2518625778594673E-2</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2">
-        <v>0.54125931288929729</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>-3.7236701633123439</v>
+        <v>-4.5920930152162924</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0.77401352261569478</v>
+        <v>2.4750388407748938</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
       </c>
       <c r="H3">
-        <v>-3.7164662131730748</v>
+        <v>-3.894568512830288</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
       </c>
       <c r="K3">
-        <v>-2.798032693661586</v>
+        <v>-1.134563930190531</v>
       </c>
       <c r="L3" t="s">
         <v>3</v>
       </c>
       <c r="N3">
-        <v>1.5186693836212499</v>
+        <v>1.734716152244637</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
       </c>
       <c r="Q3">
-        <v>1.7603842726757319</v>
+        <v>2.0253022656484601</v>
       </c>
       <c r="R3" t="s">
         <v>44</v>
       </c>
       <c r="T3">
-        <v>1.0283797022174861</v>
+        <v>1.6888527381424061</v>
       </c>
       <c r="U3" t="s">
         <v>46</v>
       </c>
       <c r="W3">
-        <v>-1.228975454246523</v>
+        <v>-2.043675948068898</v>
       </c>
       <c r="X3" t="s">
         <v>39</v>
       </c>
       <c r="Z3">
-        <v>-2.1713070154150369</v>
+        <v>-2.5161705598886441</v>
       </c>
       <c r="AA3" t="s">
         <v>39</v>
       </c>
       <c r="AC3">
-        <v>-1.074144128332376</v>
+        <v>8.2518625778594673E-2</v>
       </c>
       <c r="AD3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.54125931288929729</v>
       </c>
       <c r="AG3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>-4.3966719749739207</v>
+        <v>-3.7236701633123439</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>3.0651385118145229</v>
+        <v>0.77401352261569478</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
       </c>
       <c r="H4">
-        <v>-2.6770289838121051</v>
+        <v>-3.7164662131730748</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>-2.9648949204035628</v>
+        <v>-2.798032693661586</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
       </c>
       <c r="N4">
-        <v>2.1728609161070649</v>
+        <v>1.5186693836212499</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
       </c>
       <c r="Q4">
-        <v>2.6844357644545629</v>
+        <v>1.7603842726757319</v>
       </c>
       <c r="R4" t="s">
         <v>44</v>
       </c>
       <c r="T4">
-        <v>1.8144554037332401</v>
+        <v>1.0283797022174861</v>
       </c>
       <c r="U4" t="s">
         <v>46</v>
       </c>
       <c r="W4">
-        <v>-2.6392449379045022</v>
+        <v>-1.228975454246523</v>
       </c>
       <c r="X4" t="s">
         <v>39</v>
       </c>
       <c r="Z4">
-        <v>-2.55060890505727</v>
+        <v>-2.1713070154150369</v>
       </c>
       <c r="AA4" t="s">
         <v>39</v>
       </c>
       <c r="AC4">
-        <v>0.1070905365997508</v>
+        <v>-1.074144128332376</v>
       </c>
       <c r="AD4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF4">
-        <v>0.55354526829987538</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>-3.6629093773050112</v>
+        <v>-4.3966719749739207</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>-0.37743055193635988</v>
+        <v>3.0651385118145229</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>-6.3910239375747313</v>
+        <v>-2.6770289838121051</v>
       </c>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="K5">
-        <v>-3.3573480509994549</v>
+        <v>-2.9648949204035628</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="N5">
-        <v>0.97424854836655983</v>
+        <v>2.1728609161070649</v>
       </c>
       <c r="O5" t="s">
         <v>39</v>
       </c>
       <c r="Q5">
-        <v>1.124974079219762</v>
+        <v>2.6844357644545629</v>
       </c>
       <c r="R5" t="s">
         <v>44</v>
       </c>
       <c r="T5">
-        <v>0.99862081773318867</v>
+        <v>1.8144554037332401</v>
       </c>
       <c r="U5" t="s">
         <v>46</v>
       </c>
       <c r="W5">
-        <v>-0.93024502174891366</v>
+        <v>-2.6392449379045022</v>
       </c>
       <c r="X5" t="s">
         <v>39</v>
       </c>
       <c r="Z5">
-        <v>-2.1205676316664199</v>
+        <v>-2.55060890505727</v>
       </c>
       <c r="AA5" t="s">
         <v>39</v>
       </c>
       <c r="AC5">
-        <v>-0.40917489787869249</v>
+        <v>0.1070905365997508</v>
       </c>
       <c r="AD5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF5">
-        <v>0.29541255106065378</v>
+        <v>0.55354526829987538</v>
       </c>
       <c r="AG5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>-3.2328030530085199</v>
+        <v>-3.6629093773050112</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>2.7055666215408478</v>
+        <v>-0.37743055193635988</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>-1.167220188063175</v>
+        <v>-6.3910239375747313</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>-2.1768219521907199</v>
+        <v>-3.3573480509994549</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
       </c>
       <c r="N6">
-        <v>0.72549968218657968</v>
+        <v>0.97424854836655983</v>
       </c>
       <c r="O6" t="s">
         <v>39</v>
       </c>
       <c r="Q6">
-        <v>0.9906180425236667</v>
+        <v>1.124974079219762</v>
       </c>
       <c r="R6" t="s">
         <v>44</v>
       </c>
       <c r="T6">
-        <v>0.83388215404061794</v>
+        <v>0.99862081773318867</v>
       </c>
       <c r="U6" t="s">
         <v>46</v>
       </c>
       <c r="W6">
-        <v>-1.149134089165522</v>
+        <v>-0.93024502174891366</v>
       </c>
       <c r="X6" t="s">
         <v>39</v>
       </c>
       <c r="Z6">
-        <v>-1.3491665788390299</v>
+        <v>-2.1205676316664199</v>
       </c>
       <c r="AA6" t="s">
         <v>39</v>
       </c>
       <c r="AC6">
-        <v>-0.80012779254244704</v>
+        <v>-0.40917489787869249</v>
       </c>
       <c r="AD6" t="s">
         <v>44</v>
       </c>
       <c r="AF6">
-        <v>9.9936103728776482E-2</v>
+        <v>0.29541255106065378</v>
       </c>
       <c r="AG6" t="s">
         <v>44</v>
@@ -971,70 +908,70 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>-4.2460057403311469</v>
+        <v>-3.2328030530085199</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>3.811128390902093</v>
+        <v>2.7055666215408478</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
       </c>
       <c r="H7">
-        <v>-5.0623873974289841</v>
+        <v>-1.167220188063175</v>
       </c>
       <c r="I7" t="s">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>-2.0774271498409238</v>
+        <v>-2.1768219521907199</v>
       </c>
       <c r="L7" t="s">
         <v>3</v>
       </c>
       <c r="N7">
-        <v>1.7644602225919459</v>
+        <v>0.72549968218657968</v>
       </c>
       <c r="O7" t="s">
         <v>39</v>
       </c>
       <c r="Q7">
-        <v>1.9980910074110541</v>
+        <v>0.9906180425236667</v>
       </c>
       <c r="R7" t="s">
         <v>44</v>
       </c>
       <c r="T7">
-        <v>1.303546892543171</v>
+        <v>0.83388215404061794</v>
       </c>
       <c r="U7" t="s">
         <v>46</v>
       </c>
       <c r="W7">
-        <v>-2.4933075373863409</v>
+        <v>-1.149134089165522</v>
       </c>
       <c r="X7" t="s">
         <v>39</v>
       </c>
       <c r="Z7">
-        <v>-2.8233555247956321</v>
+        <v>-1.3491665788390299</v>
       </c>
       <c r="AA7" t="s">
         <v>39</v>
       </c>
       <c r="AC7">
-        <v>-0.67822489199642744</v>
+        <v>-0.80012779254244704</v>
       </c>
       <c r="AD7" t="s">
         <v>44</v>
       </c>
       <c r="AF7">
-        <v>0.16088755400178631</v>
+        <v>9.9936103728776482E-2</v>
       </c>
       <c r="AG7" t="s">
         <v>44</v>
@@ -1042,70 +979,70 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>-5.3551843793879286</v>
+        <v>-4.2460057403311469</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>3.793577834656642</v>
+        <v>3.811128390902093</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
       </c>
       <c r="H8">
-        <v>-3.8408111051459808</v>
+        <v>-5.0623873974289841</v>
       </c>
       <c r="I8" t="s">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>-4.0441066219201343</v>
+        <v>-2.0774271498409238</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
       </c>
       <c r="N8">
-        <v>2.346247695242635</v>
+        <v>1.7644602225919459</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
       </c>
       <c r="Q8">
-        <v>2.5063875622965162</v>
+        <v>1.9980910074110541</v>
       </c>
       <c r="R8" t="s">
         <v>44</v>
       </c>
       <c r="T8">
-        <v>1.5613804540665011</v>
+        <v>1.303546892543171</v>
       </c>
       <c r="U8" t="s">
         <v>46</v>
       </c>
       <c r="W8">
-        <v>-1.8489882154163479</v>
+        <v>-2.4933075373863409</v>
       </c>
       <c r="X8" t="s">
         <v>39</v>
       </c>
       <c r="Z8">
-        <v>-3.2022471664316008</v>
+        <v>-2.8233555247956321</v>
       </c>
       <c r="AA8" t="s">
         <v>39</v>
       </c>
       <c r="AC8">
-        <v>-0.7590078677360691</v>
+        <v>-0.67822489199642744</v>
       </c>
       <c r="AD8" t="s">
         <v>44</v>
       </c>
       <c r="AF8">
-        <v>0.12049606613196551</v>
+        <v>0.16088755400178631</v>
       </c>
       <c r="AG8" t="s">
         <v>44</v>
@@ -1113,70 +1050,70 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>-2.59597837068244</v>
+        <v>-5.3551843793879286</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>1.5587307907410439</v>
+        <v>3.793577834656642</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
       </c>
       <c r="H9">
-        <v>-1.6507455942516951</v>
+        <v>-3.8408111051459808</v>
       </c>
       <c r="I9" t="s">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>-1.2606403282910119</v>
+        <v>-4.0441066219201343</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
       </c>
       <c r="N9">
-        <v>0.58423111567404051</v>
+        <v>2.346247695242635</v>
       </c>
       <c r="O9" t="s">
         <v>39</v>
       </c>
       <c r="Q9">
-        <v>1.020409203072173</v>
+        <v>2.5063875622965162</v>
       </c>
       <c r="R9" t="s">
         <v>44</v>
       </c>
       <c r="T9">
-        <v>0.59258664389981452</v>
+        <v>1.5613804540665011</v>
       </c>
       <c r="U9" t="s">
         <v>46</v>
       </c>
       <c r="W9">
-        <v>-0.60198107190601702</v>
+        <v>-1.8489882154163479</v>
       </c>
       <c r="X9" t="s">
         <v>39</v>
       </c>
       <c r="Z9">
-        <v>-0.64837215609591825</v>
+        <v>-3.2022471664316008</v>
       </c>
       <c r="AA9" t="s">
         <v>39</v>
       </c>
       <c r="AC9">
-        <v>-0.40227498495032582</v>
+        <v>-0.7590078677360691</v>
       </c>
       <c r="AD9" t="s">
         <v>44</v>
       </c>
       <c r="AF9">
-        <v>0.29886250752483712</v>
+        <v>0.12049606613196551</v>
       </c>
       <c r="AG9" t="s">
         <v>44</v>
@@ -1184,70 +1121,70 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>-4.2845441658220667</v>
+        <v>-2.59597837068244</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>2.5078466499877439</v>
+        <v>1.5587307907410439</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
       </c>
       <c r="H10">
-        <v>-6.7746652493260591</v>
+        <v>-1.6507455942516951</v>
       </c>
       <c r="I10" t="s">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>-3.7718107837376551</v>
+        <v>-1.2606403282910119</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>1.560924344987364</v>
+        <v>0.58423111567404051</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
       </c>
       <c r="Q10">
-        <v>1.8254127756491949</v>
+        <v>1.020409203072173</v>
       </c>
       <c r="R10" t="s">
         <v>44</v>
       </c>
       <c r="T10">
-        <v>1.251038448282934</v>
+        <v>0.59258664389981452</v>
       </c>
       <c r="U10" t="s">
         <v>46</v>
       </c>
       <c r="W10">
-        <v>-1.8407531857081201</v>
+        <v>-0.60198107190601702</v>
       </c>
       <c r="X10" t="s">
         <v>39</v>
       </c>
       <c r="Z10">
-        <v>-2.44192152546045</v>
+        <v>-0.64837215609591825</v>
       </c>
       <c r="AA10" t="s">
         <v>39</v>
       </c>
       <c r="AC10">
-        <v>-0.86059787061166604</v>
+        <v>-0.40227498495032582</v>
       </c>
       <c r="AD10" t="s">
         <v>44</v>
       </c>
       <c r="AF10">
-        <v>6.9701064694166981E-2</v>
+        <v>0.29886250752483712</v>
       </c>
       <c r="AG10" t="s">
         <v>44</v>
@@ -1255,141 +1192,141 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>-4.7414422498445266</v>
+        <v>-4.2845441658220667</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>2.496380872497074</v>
+        <v>2.5078466499877439</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
       <c r="H11">
-        <v>-2.9218030431791768</v>
+        <v>-6.7746652493260591</v>
       </c>
       <c r="I11" t="s">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>-0.39197531808585079</v>
+        <v>-3.7718107837376551</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
       </c>
       <c r="N11">
-        <v>1.834806830620743</v>
+        <v>1.560924344987364</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
       </c>
       <c r="Q11">
-        <v>2.0424548669547922</v>
+        <v>1.8254127756491949</v>
       </c>
       <c r="R11" t="s">
         <v>44</v>
       </c>
       <c r="T11">
-        <v>1.59381190349971</v>
+        <v>1.251038448282934</v>
       </c>
       <c r="U11" t="s">
         <v>46</v>
       </c>
       <c r="W11">
-        <v>-1.721378741838786</v>
+        <v>-1.8407531857081201</v>
       </c>
       <c r="X11" t="s">
         <v>39</v>
       </c>
       <c r="Z11">
-        <v>-2.246470958261634</v>
+        <v>-2.44192152546045</v>
       </c>
       <c r="AA11" t="s">
         <v>39</v>
       </c>
       <c r="AC11">
-        <v>5.3486445638248753E-2</v>
+        <v>-0.86059787061166604</v>
       </c>
       <c r="AD11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF11">
-        <v>0.52674322281912433</v>
+        <v>6.9701064694166981E-2</v>
       </c>
       <c r="AG11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>-3.9751773186142598</v>
+        <v>-4.7414422498445266</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>3.0149691074343741</v>
+        <v>2.496380872497074</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
       </c>
       <c r="H12">
-        <v>-3.9537670727215208</v>
+        <v>-2.9218030431791768</v>
       </c>
       <c r="I12" t="s">
         <v>3</v>
       </c>
       <c r="K12">
-        <v>-2.0987536644772469</v>
+        <v>-0.39197531808585079</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
       </c>
       <c r="N12">
-        <v>1.461266799615222</v>
+        <v>1.834806830620743</v>
       </c>
       <c r="O12" t="s">
         <v>39</v>
       </c>
       <c r="Q12">
-        <v>1.6572708245366989</v>
+        <v>2.0424548669547922</v>
       </c>
       <c r="R12" t="s">
         <v>44</v>
       </c>
       <c r="T12">
-        <v>1.6130933136897829</v>
+        <v>1.59381190349971</v>
       </c>
       <c r="U12" t="s">
         <v>46</v>
       </c>
       <c r="W12">
-        <v>-1.707075414071263</v>
+        <v>-1.721378741838786</v>
       </c>
       <c r="X12" t="s">
         <v>39</v>
       </c>
       <c r="Z12">
-        <v>-1.9819278054695111</v>
+        <v>-2.246470958261634</v>
       </c>
       <c r="AA12" t="s">
         <v>39</v>
       </c>
       <c r="AC12">
-        <v>0.32245668787673859</v>
+        <v>5.3486445638248753E-2</v>
       </c>
       <c r="AD12" t="s">
         <v>46</v>
       </c>
       <c r="AF12">
-        <v>0.66122834393836927</v>
+        <v>0.52674322281912433</v>
       </c>
       <c r="AG12" t="s">
         <v>46</v>
@@ -1397,70 +1334,70 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>-2.6423333797865571</v>
+        <v>-3.9751773186142598</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>3.7358799238855922</v>
+        <v>3.0149691074343741</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
       </c>
       <c r="H13">
-        <v>-3.561599274914371</v>
+        <v>-3.9537670727215208</v>
       </c>
       <c r="I13" t="s">
         <v>3</v>
       </c>
       <c r="K13">
-        <v>-1.8824915817188941</v>
+        <v>-2.0987536644772469</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
       </c>
       <c r="N13">
-        <v>1.549041762773202</v>
+        <v>1.461266799615222</v>
       </c>
       <c r="O13" t="s">
         <v>39</v>
       </c>
       <c r="Q13">
-        <v>1.8848583402236361</v>
+        <v>1.6572708245366989</v>
       </c>
       <c r="R13" t="s">
         <v>44</v>
       </c>
       <c r="T13">
-        <v>1.5997085635035839</v>
+        <v>1.6130933136897829</v>
       </c>
       <c r="U13" t="s">
         <v>46</v>
       </c>
       <c r="W13">
-        <v>-2.3547243619180338</v>
+        <v>-1.707075414071263</v>
       </c>
       <c r="X13" t="s">
         <v>39</v>
       </c>
       <c r="Z13">
-        <v>-1.7554158621913469</v>
+        <v>-1.9819278054695111</v>
       </c>
       <c r="AA13" t="s">
         <v>39</v>
       </c>
       <c r="AC13">
-        <v>0.26779382956422909</v>
+        <v>0.32245668787673859</v>
       </c>
       <c r="AD13" t="s">
         <v>46</v>
       </c>
       <c r="AF13">
-        <v>0.63389691478211452</v>
+        <v>0.66122834393836927</v>
       </c>
       <c r="AG13" t="s">
         <v>46</v>
@@ -1468,283 +1405,283 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>-6.0628522900680819</v>
+        <v>-2.6423333797865571</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>5.3461525100503158</v>
+        <v>3.7358799238855922</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
       <c r="H14">
-        <v>-3.8087882653090288</v>
+        <v>-3.561599274914371</v>
       </c>
       <c r="I14" t="s">
         <v>3</v>
       </c>
       <c r="K14">
-        <v>-4.1372054703361272</v>
+        <v>-1.8824915817188941</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
       </c>
       <c r="N14">
-        <v>3.255448468876907</v>
+        <v>1.549041762773202</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
       </c>
       <c r="Q14">
-        <v>3.9158714021954402</v>
+        <v>1.8848583402236361</v>
       </c>
       <c r="R14" t="s">
         <v>44</v>
       </c>
       <c r="T14">
-        <v>2.4873906437249791</v>
+        <v>1.5997085635035839</v>
       </c>
       <c r="U14" t="s">
         <v>46</v>
       </c>
       <c r="W14">
-        <v>-2.9992899530986872</v>
+        <v>-2.3547243619180338</v>
       </c>
       <c r="X14" t="s">
         <v>39</v>
       </c>
       <c r="Z14">
-        <v>-3.730503573695886</v>
+        <v>-1.7554158621913469</v>
       </c>
       <c r="AA14" t="s">
         <v>39</v>
       </c>
       <c r="AC14">
-        <v>-0.42327733045209093</v>
+        <v>0.26779382956422909</v>
       </c>
       <c r="AD14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF14">
-        <v>0.28836133477395448</v>
+        <v>0.63389691478211452</v>
       </c>
       <c r="AG14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>-3.967538999378537</v>
+        <v>-6.0628522900680819</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>2.789529955196925</v>
+        <v>5.3461525100503158</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
       </c>
       <c r="H15">
-        <v>-5.0546659277551322</v>
+        <v>-3.8087882653090288</v>
       </c>
       <c r="I15" t="s">
         <v>3</v>
       </c>
       <c r="K15">
-        <v>-0.90594611334440656</v>
+        <v>-4.1372054703361272</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
       </c>
       <c r="N15">
-        <v>1.9757817782185121</v>
+        <v>3.255448468876907</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="Q15">
-        <v>1.7735731618043611</v>
+        <v>3.9158714021954402</v>
       </c>
       <c r="R15" t="s">
         <v>44</v>
       </c>
       <c r="T15">
-        <v>1.5046482473173359</v>
+        <v>2.4873906437249791</v>
       </c>
       <c r="U15" t="s">
         <v>46</v>
       </c>
       <c r="W15">
-        <v>-2.2956273389585728</v>
+        <v>-2.9992899530986872</v>
       </c>
       <c r="X15" t="s">
         <v>39</v>
       </c>
       <c r="Z15">
-        <v>-1.991908212185765</v>
+        <v>-3.730503573695886</v>
       </c>
       <c r="AA15" t="s">
         <v>39</v>
       </c>
       <c r="AC15">
-        <v>0.48371804966345078</v>
+        <v>-0.42327733045209093</v>
       </c>
       <c r="AD15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF15">
-        <v>0.74185902483172539</v>
+        <v>0.28836133477395448</v>
       </c>
       <c r="AG15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>-2.3694054086180611</v>
+        <v>-3.967538999378537</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>2.0304977660040602</v>
+        <v>2.789529955196925</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
       </c>
       <c r="H16">
-        <v>-1.832915355523824</v>
+        <v>-5.0546659277551322</v>
       </c>
       <c r="I16" t="s">
         <v>3</v>
       </c>
       <c r="K16">
-        <v>-2.417131553036076</v>
+        <v>-0.90594611334440656</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
       </c>
       <c r="N16">
-        <v>1.4160581208222429</v>
+        <v>1.9757817782185121</v>
       </c>
       <c r="O16" t="s">
         <v>39</v>
       </c>
       <c r="Q16">
-        <v>1.3031066983762221</v>
+        <v>1.7735731618043611</v>
       </c>
       <c r="R16" t="s">
         <v>44</v>
       </c>
       <c r="T16">
-        <v>1.0668038974146321</v>
+        <v>1.5046482473173359</v>
       </c>
       <c r="U16" t="s">
         <v>46</v>
       </c>
       <c r="W16">
-        <v>-1.4748201424209291</v>
+        <v>-2.2956273389585728</v>
       </c>
       <c r="X16" t="s">
         <v>39</v>
       </c>
       <c r="Z16">
-        <v>-2.2188831880870401</v>
+        <v>-1.991908212185765</v>
       </c>
       <c r="AA16" t="s">
         <v>39</v>
       </c>
       <c r="AC16">
-        <v>-0.45948681765755223</v>
+        <v>0.48371804966345078</v>
       </c>
       <c r="AD16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF16">
-        <v>0.27025659117122391</v>
+        <v>0.74185902483172539</v>
       </c>
       <c r="AG16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>-3.8549677579127128</v>
+        <v>-2.3694054086180611</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="E17">
-        <v>2.2936528361965198</v>
+        <v>2.0304977660040602</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
       <c r="H17">
-        <v>-5.2505273107249204</v>
+        <v>-1.832915355523824</v>
       </c>
       <c r="I17" t="s">
         <v>3</v>
       </c>
       <c r="K17">
-        <v>-2.1115791318625612</v>
+        <v>-2.417131553036076</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
       </c>
       <c r="N17">
-        <v>2.0487601398680271</v>
+        <v>1.4160581208222429</v>
       </c>
       <c r="O17" t="s">
         <v>39</v>
       </c>
       <c r="Q17">
-        <v>2.255357537244596</v>
+        <v>1.3031066983762221</v>
       </c>
       <c r="R17" t="s">
         <v>44</v>
       </c>
       <c r="T17">
-        <v>1.8121122949729369</v>
+        <v>1.0668038974146321</v>
       </c>
       <c r="U17" t="s">
         <v>46</v>
       </c>
       <c r="W17">
-        <v>-2.1112845436295591</v>
+        <v>-1.4748201424209291</v>
       </c>
       <c r="X17" t="s">
         <v>39</v>
       </c>
       <c r="Z17">
-        <v>-2.061593360202933</v>
+        <v>-2.2188831880870401</v>
       </c>
       <c r="AA17" t="s">
         <v>39</v>
       </c>
       <c r="AC17">
-        <v>-0.27717709977848431</v>
+        <v>-0.45948681765755223</v>
       </c>
       <c r="AD17" t="s">
         <v>44</v>
       </c>
       <c r="AF17">
-        <v>0.36141145011075781</v>
+        <v>0.27025659117122391</v>
       </c>
       <c r="AG17" t="s">
         <v>44</v>
@@ -1752,212 +1689,212 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>-5.7922369531534814</v>
+        <v>-3.8549677579127128</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>2.8815433983395891</v>
+        <v>2.2936528361965198</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
       </c>
       <c r="H18">
-        <v>-3.76678862119793</v>
+        <v>-5.2505273107249204</v>
       </c>
       <c r="I18" t="s">
         <v>3</v>
       </c>
       <c r="K18">
-        <v>-1.579655220424363</v>
+        <v>-2.1115791318625612</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
       </c>
       <c r="N18">
-        <v>1.5520559515223109</v>
+        <v>2.0487601398680271</v>
       </c>
       <c r="O18" t="s">
         <v>39</v>
       </c>
       <c r="Q18">
-        <v>1.716202124759151</v>
+        <v>2.255357537244596</v>
       </c>
       <c r="R18" t="s">
         <v>44</v>
       </c>
       <c r="T18">
-        <v>1.417472058838793</v>
+        <v>1.8121122949729369</v>
       </c>
       <c r="U18" t="s">
         <v>46</v>
       </c>
       <c r="W18">
-        <v>-1.5201500231570939</v>
+        <v>-2.1112845436295591</v>
       </c>
       <c r="X18" t="s">
         <v>39</v>
       </c>
       <c r="Z18">
-        <v>-1.425533611748435</v>
+        <v>-2.061593360202933</v>
       </c>
       <c r="AA18" t="s">
         <v>39</v>
       </c>
       <c r="AC18">
-        <v>0.43650609898012388</v>
+        <v>-0.27717709977848431</v>
       </c>
       <c r="AD18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF18">
-        <v>0.71825304949006197</v>
+        <v>0.36141145011075781</v>
       </c>
       <c r="AG18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>-4.4175356090959612</v>
+        <v>-5.7922369531534814</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>2.6290566175566861</v>
+        <v>2.8815433983395891</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
       </c>
       <c r="H19">
-        <v>-5.3823911760791114</v>
+        <v>-3.76678862119793</v>
       </c>
       <c r="I19" t="s">
         <v>3</v>
       </c>
       <c r="K19">
-        <v>-1.706243019656664</v>
+        <v>-1.579655220424363</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
       </c>
       <c r="N19">
-        <v>1.6623960051809401</v>
+        <v>1.5520559515223109</v>
       </c>
       <c r="O19" t="s">
         <v>39</v>
       </c>
       <c r="Q19">
-        <v>1.448132513385789</v>
+        <v>1.716202124759151</v>
       </c>
       <c r="R19" t="s">
         <v>44</v>
       </c>
       <c r="T19">
-        <v>1.421164930563017</v>
+        <v>1.417472058838793</v>
       </c>
       <c r="U19" t="s">
         <v>46</v>
       </c>
       <c r="W19">
-        <v>-2.299306006895554</v>
+        <v>-1.5201500231570939</v>
       </c>
       <c r="X19" t="s">
         <v>39</v>
       </c>
       <c r="Z19">
-        <v>-1.9415196334012661</v>
+        <v>-1.425533611748435</v>
       </c>
       <c r="AA19" t="s">
         <v>39</v>
       </c>
       <c r="AC19">
-        <v>-0.45652466391069318</v>
+        <v>0.43650609898012388</v>
       </c>
       <c r="AD19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF19">
-        <v>0.27173766804465338</v>
+        <v>0.71825304949006197</v>
       </c>
       <c r="AG19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>-3.48019378304009</v>
+        <v>-4.4175356090959612</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>4.4664228354032938</v>
+        <v>2.6290566175566861</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
       </c>
       <c r="H20">
-        <v>-1.77183494989876</v>
+        <v>-5.3823911760791114</v>
       </c>
       <c r="I20" t="s">
         <v>3</v>
       </c>
       <c r="K20">
-        <v>-2.402917248514354</v>
+        <v>-1.706243019656664</v>
       </c>
       <c r="L20" t="s">
         <v>3</v>
       </c>
       <c r="N20">
-        <v>1.46235004286899</v>
+        <v>1.6623960051809401</v>
       </c>
       <c r="O20" t="s">
         <v>39</v>
       </c>
       <c r="Q20">
-        <v>1.75836079575287</v>
+        <v>1.448132513385789</v>
       </c>
       <c r="R20" t="s">
         <v>44</v>
       </c>
       <c r="T20">
-        <v>1.284732615620845</v>
+        <v>1.421164930563017</v>
       </c>
       <c r="U20" t="s">
         <v>46</v>
       </c>
       <c r="W20">
-        <v>-1.860845133010079</v>
+        <v>-2.299306006895554</v>
       </c>
       <c r="X20" t="s">
         <v>39</v>
       </c>
       <c r="Z20">
-        <v>-2.7045205615379131</v>
+        <v>-1.9415196334012661</v>
       </c>
       <c r="AA20" t="s">
         <v>39</v>
       </c>
       <c r="AC20">
-        <v>-0.1185421096765062</v>
+        <v>-0.45652466391069318</v>
       </c>
       <c r="AD20" t="s">
         <v>44</v>
       </c>
       <c r="AF20">
-        <v>0.44072894516174688</v>
+        <v>0.27173766804465338</v>
       </c>
       <c r="AG20" t="s">
         <v>44</v>
@@ -1965,70 +1902,70 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>-4.3067910407693786</v>
+        <v>-3.48019378304009</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>1.0923425145625569</v>
+        <v>4.4664228354032938</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>
       </c>
       <c r="H21">
-        <v>-3.7821447498741732</v>
+        <v>-1.77183494989876</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
       </c>
       <c r="K21">
-        <v>-1.5906306865142621</v>
+        <v>-2.402917248514354</v>
       </c>
       <c r="L21" t="s">
         <v>3</v>
       </c>
       <c r="N21">
-        <v>1.0965018334457339</v>
+        <v>1.46235004286899</v>
       </c>
       <c r="O21" t="s">
         <v>39</v>
       </c>
       <c r="Q21">
-        <v>1.6359596965719581</v>
+        <v>1.75836079575287</v>
       </c>
       <c r="R21" t="s">
         <v>44</v>
       </c>
       <c r="T21">
-        <v>1.2793294222486431</v>
+        <v>1.284732615620845</v>
       </c>
       <c r="U21" t="s">
         <v>46</v>
       </c>
       <c r="W21">
-        <v>-0.5881231209828659</v>
+        <v>-1.860845133010079</v>
       </c>
       <c r="X21" t="s">
         <v>39</v>
       </c>
       <c r="Z21">
-        <v>-1.2755638172185439</v>
+        <v>-2.7045205615379131</v>
       </c>
       <c r="AA21" t="s">
         <v>39</v>
       </c>
       <c r="AC21">
-        <v>-7.8793082530671993E-2</v>
+        <v>-0.1185421096765062</v>
       </c>
       <c r="AD21" t="s">
         <v>44</v>
       </c>
       <c r="AF21">
-        <v>0.46060345873466402</v>
+        <v>0.44072894516174688</v>
       </c>
       <c r="AG21" t="s">
         <v>44</v>
@@ -2036,141 +1973,141 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>-3.4528764370150671</v>
+        <v>-4.3067910407693786</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>4.0084187690638524</v>
+        <v>1.0923425145625569</v>
       </c>
       <c r="F22" t="s">
         <v>39</v>
       </c>
       <c r="H22">
-        <v>-5.0740693199573501</v>
+        <v>-3.7821447498741732</v>
       </c>
       <c r="I22" t="s">
         <v>3</v>
       </c>
       <c r="K22">
-        <v>-2.4167900044888802</v>
+        <v>-1.5906306865142621</v>
       </c>
       <c r="L22" t="s">
         <v>3</v>
       </c>
       <c r="N22">
-        <v>1.7007817441428781</v>
+        <v>1.0965018334457339</v>
       </c>
       <c r="O22" t="s">
         <v>39</v>
       </c>
       <c r="Q22">
-        <v>2.1066794396933228</v>
+        <v>1.6359596965719581</v>
       </c>
       <c r="R22" t="s">
         <v>44</v>
       </c>
       <c r="T22">
-        <v>1.463941028704677</v>
+        <v>1.2793294222486431</v>
       </c>
       <c r="U22" t="s">
         <v>46</v>
       </c>
       <c r="W22">
-        <v>-2.4765808528250748</v>
+        <v>-0.5881231209828659</v>
       </c>
       <c r="X22" t="s">
         <v>39</v>
       </c>
       <c r="Z22">
-        <v>-2.2626073302867811</v>
+        <v>-1.2755638172185439</v>
       </c>
       <c r="AA22" t="s">
         <v>39</v>
       </c>
       <c r="AC22">
-        <v>0.63982177207051272</v>
+        <v>-7.8793082530671993E-2</v>
       </c>
       <c r="AD22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF22">
-        <v>0.81991088603525641</v>
+        <v>0.46060345873466402</v>
       </c>
       <c r="AG22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>-4.111365074164369</v>
+        <v>-3.4528764370150671</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>3.3122921689105969</v>
+        <v>4.0084187690638524</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
       </c>
       <c r="H23">
-        <v>-3.494645684737121</v>
+        <v>-5.0740693199573501</v>
       </c>
       <c r="I23" t="s">
         <v>3</v>
       </c>
       <c r="K23">
-        <v>-1.7887305205222459</v>
+        <v>-2.4167900044888802</v>
       </c>
       <c r="L23" t="s">
         <v>3</v>
       </c>
       <c r="N23">
-        <v>1.370612470281569</v>
+        <v>1.7007817441428781</v>
       </c>
       <c r="O23" t="s">
         <v>39</v>
       </c>
       <c r="Q23">
-        <v>1.5768444281623519</v>
+        <v>2.1066794396933228</v>
       </c>
       <c r="R23" t="s">
         <v>44</v>
       </c>
       <c r="T23">
-        <v>1.255450441194458</v>
+        <v>1.463941028704677</v>
       </c>
       <c r="U23" t="s">
         <v>46</v>
       </c>
       <c r="W23">
-        <v>-1.627842734163931</v>
+        <v>-2.4765808528250748</v>
       </c>
       <c r="X23" t="s">
         <v>39</v>
       </c>
       <c r="Z23">
-        <v>-1.805654825935858</v>
+        <v>-2.2626073302867811</v>
       </c>
       <c r="AA23" t="s">
         <v>39</v>
       </c>
       <c r="AC23">
-        <v>0.2259396798905467</v>
+        <v>0.63982177207051272</v>
       </c>
       <c r="AD23" t="s">
         <v>46</v>
       </c>
       <c r="AF23">
-        <v>0.61296983994527332</v>
+        <v>0.81991088603525641</v>
       </c>
       <c r="AG23" t="s">
         <v>46</v>
@@ -2178,141 +2115,141 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>-3.6627127513562159</v>
+        <v>-4.111365074164369</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>3.734159489581808</v>
+        <v>3.3122921689105969</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
       </c>
       <c r="H24">
-        <v>-3.645384301182709</v>
+        <v>-3.494645684737121</v>
       </c>
       <c r="I24" t="s">
         <v>3</v>
       </c>
       <c r="K24">
-        <v>-3.7718072987131359</v>
+        <v>-1.7887305205222459</v>
       </c>
       <c r="L24" t="s">
         <v>3</v>
       </c>
       <c r="N24">
-        <v>1.333849314172731</v>
+        <v>1.370612470281569</v>
       </c>
       <c r="O24" t="s">
         <v>39</v>
       </c>
       <c r="Q24">
-        <v>1.446921525385428</v>
+        <v>1.5768444281623519</v>
       </c>
       <c r="R24" t="s">
         <v>44</v>
       </c>
       <c r="T24">
-        <v>1.0860608845955639</v>
+        <v>1.255450441194458</v>
       </c>
       <c r="U24" t="s">
         <v>46</v>
       </c>
       <c r="W24">
-        <v>-1.9210866734757051</v>
+        <v>-1.627842734163931</v>
       </c>
       <c r="X24" t="s">
         <v>39</v>
       </c>
       <c r="Z24">
-        <v>-2.6439313676663039</v>
+        <v>-1.805654825935858</v>
       </c>
       <c r="AA24" t="s">
         <v>39</v>
       </c>
       <c r="AC24">
-        <v>-0.48498295387121598</v>
+        <v>0.2259396798905467</v>
       </c>
       <c r="AD24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF24">
-        <v>0.25750852306439198</v>
+        <v>0.61296983994527332</v>
       </c>
       <c r="AG24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>-3.6971304629344299</v>
+        <v>-3.6627127513562159</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>2.028187124629115</v>
+        <v>3.734159489581808</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
       </c>
       <c r="H25">
-        <v>-3.1873413997380502</v>
+        <v>-3.645384301182709</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
       </c>
       <c r="K25">
-        <v>-1.7542378265464429</v>
+        <v>-3.7718072987131359</v>
       </c>
       <c r="L25" t="s">
         <v>3</v>
       </c>
       <c r="N25">
-        <v>1.2358113138219911</v>
+        <v>1.333849314172731</v>
       </c>
       <c r="O25" t="s">
         <v>39</v>
       </c>
       <c r="Q25">
-        <v>1.665607328552023</v>
+        <v>1.446921525385428</v>
       </c>
       <c r="R25" t="s">
         <v>44</v>
       </c>
       <c r="T25">
-        <v>1.092920238330096</v>
+        <v>1.0860608845955639</v>
       </c>
       <c r="U25" t="s">
         <v>46</v>
       </c>
       <c r="W25">
-        <v>-1.6834207334189779</v>
+        <v>-1.9210866734757051</v>
       </c>
       <c r="X25" t="s">
         <v>39</v>
       </c>
       <c r="Z25">
-        <v>-1.7508073570836651</v>
+        <v>-2.6439313676663039</v>
       </c>
       <c r="AA25" t="s">
         <v>39</v>
       </c>
       <c r="AC25">
-        <v>-3.0317036476562559E-2</v>
+        <v>-0.48498295387121598</v>
       </c>
       <c r="AD25" t="s">
         <v>44</v>
       </c>
       <c r="AF25">
-        <v>0.48484148176171871</v>
+        <v>0.25750852306439198</v>
       </c>
       <c r="AG25" t="s">
         <v>44</v>
@@ -2320,70 +2257,70 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>-4.577893513744943</v>
+        <v>-3.6971304629344299</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>1.875208142757723</v>
+        <v>2.028187124629115</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
       <c r="H26">
-        <v>-3.9599816525840108</v>
+        <v>-3.1873413997380502</v>
       </c>
       <c r="I26" t="s">
         <v>3</v>
       </c>
       <c r="K26">
-        <v>-3.1101144249783759</v>
+        <v>-1.7542378265464429</v>
       </c>
       <c r="L26" t="s">
         <v>3</v>
       </c>
       <c r="N26">
-        <v>1.7691470661303681</v>
+        <v>1.2358113138219911</v>
       </c>
       <c r="O26" t="s">
         <v>39</v>
       </c>
       <c r="Q26">
-        <v>2.0087386754353891</v>
+        <v>1.665607328552023</v>
       </c>
       <c r="R26" t="s">
         <v>44</v>
       </c>
       <c r="T26">
-        <v>1.2405305577600001</v>
+        <v>1.092920238330096</v>
       </c>
       <c r="U26" t="s">
         <v>46</v>
       </c>
       <c r="W26">
-        <v>-1.737494047593195</v>
+        <v>-1.6834207334189779</v>
       </c>
       <c r="X26" t="s">
         <v>39</v>
       </c>
       <c r="Z26">
-        <v>-2.3906826555632379</v>
+        <v>-1.7508073570836651</v>
       </c>
       <c r="AA26" t="s">
         <v>39</v>
       </c>
       <c r="AC26">
-        <v>-1.0105449551004679</v>
+        <v>-3.0317036476562559E-2</v>
       </c>
       <c r="AD26" t="s">
         <v>44</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>0.48484148176171871</v>
       </c>
       <c r="AG26" t="s">
         <v>44</v>
@@ -2391,70 +2328,70 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>-4.2535311794703414</v>
+        <v>-4.577893513744943</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>0.51716160186629812</v>
+        <v>1.875208142757723</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
       <c r="H27">
-        <v>-2.5977922028435319</v>
+        <v>-3.9599816525840108</v>
       </c>
       <c r="I27" t="s">
         <v>3</v>
       </c>
       <c r="K27">
-        <v>-2.4513935055135621</v>
+        <v>-3.1101144249783759</v>
       </c>
       <c r="L27" t="s">
         <v>3</v>
       </c>
       <c r="N27">
-        <v>1.2589685574620111</v>
+        <v>1.7691470661303681</v>
       </c>
       <c r="O27" t="s">
         <v>39</v>
       </c>
       <c r="Q27">
-        <v>1.760167949892347</v>
+        <v>2.0087386754353891</v>
       </c>
       <c r="R27" t="s">
         <v>44</v>
       </c>
       <c r="T27">
-        <v>1.2251840797746441</v>
+        <v>1.2405305577600001</v>
       </c>
       <c r="U27" t="s">
         <v>46</v>
       </c>
       <c r="W27">
-        <v>-0.97212638910639249</v>
+        <v>-1.737494047593195</v>
       </c>
       <c r="X27" t="s">
         <v>39</v>
       </c>
       <c r="Z27">
-        <v>-1.937534641287542</v>
+        <v>-2.3906826555632379</v>
       </c>
       <c r="AA27" t="s">
         <v>39</v>
       </c>
       <c r="AC27">
-        <v>-0.46925520249334002</v>
+        <v>-1.0105449551004679</v>
       </c>
       <c r="AD27" t="s">
         <v>44</v>
       </c>
       <c r="AF27">
-        <v>0.26537239875333002</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="s">
         <v>44</v>
@@ -2462,70 +2399,70 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>-3.445055455260273</v>
+        <v>-4.2535311794703414</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>2.4984529457790172</v>
+        <v>0.51716160186629812</v>
       </c>
       <c r="F28" t="s">
         <v>39</v>
       </c>
       <c r="H28">
-        <v>-2.776118843647883</v>
+        <v>-2.5977922028435319</v>
       </c>
       <c r="I28" t="s">
         <v>3</v>
       </c>
       <c r="K28">
-        <v>-1.835569704161814</v>
+        <v>-2.4513935055135621</v>
       </c>
       <c r="L28" t="s">
         <v>3</v>
       </c>
       <c r="N28">
-        <v>1.39973409639247</v>
+        <v>1.2589685574620111</v>
       </c>
       <c r="O28" t="s">
         <v>39</v>
       </c>
       <c r="Q28">
-        <v>1.925791664990989</v>
+        <v>1.760167949892347</v>
       </c>
       <c r="R28" t="s">
         <v>44</v>
       </c>
       <c r="T28">
-        <v>1.381666835692148</v>
+        <v>1.2251840797746441</v>
       </c>
       <c r="U28" t="s">
         <v>46</v>
       </c>
       <c r="W28">
-        <v>-1.433229660692797</v>
+        <v>-0.97212638910639249</v>
       </c>
       <c r="X28" t="s">
         <v>39</v>
       </c>
       <c r="Z28">
-        <v>-2.6201762440025371</v>
+        <v>-1.937534641287542</v>
       </c>
       <c r="AA28" t="s">
         <v>39</v>
       </c>
       <c r="AC28">
-        <v>-0.59790275082103339</v>
+        <v>-0.46925520249334002</v>
       </c>
       <c r="AD28" t="s">
         <v>44</v>
       </c>
       <c r="AF28">
-        <v>0.2010486245894833</v>
+        <v>0.26537239875333002</v>
       </c>
       <c r="AG28" t="s">
         <v>44</v>
@@ -2533,141 +2470,141 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>-4.1559707459073136</v>
+        <v>-3.445055455260273</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>3.4919915446575178</v>
+        <v>2.4984529457790172</v>
       </c>
       <c r="F29" t="s">
         <v>39</v>
       </c>
       <c r="H29">
-        <v>-2.3906810628231598</v>
+        <v>-2.776118843647883</v>
       </c>
       <c r="I29" t="s">
         <v>3</v>
       </c>
       <c r="K29">
-        <v>-1.589496548228106</v>
+        <v>-1.835569704161814</v>
       </c>
       <c r="L29" t="s">
         <v>3</v>
       </c>
       <c r="N29">
-        <v>1.4576847953850189</v>
+        <v>1.39973409639247</v>
       </c>
       <c r="O29" t="s">
         <v>39</v>
       </c>
       <c r="Q29">
-        <v>1.8161349388682659</v>
+        <v>1.925791664990989</v>
       </c>
       <c r="R29" t="s">
         <v>44</v>
       </c>
       <c r="T29">
-        <v>1.4597189111879749</v>
+        <v>1.381666835692148</v>
       </c>
       <c r="U29" t="s">
         <v>46</v>
       </c>
       <c r="W29">
-        <v>-1.3901000408629101</v>
+        <v>-1.433229660692797</v>
       </c>
       <c r="X29" t="s">
         <v>39</v>
       </c>
       <c r="Z29">
-        <v>-1.9644950015552169</v>
+        <v>-2.6201762440025371</v>
       </c>
       <c r="AA29" t="s">
         <v>39</v>
       </c>
       <c r="AC29">
-        <v>8.394601725964726E-2</v>
+        <v>-0.59790275082103339</v>
       </c>
       <c r="AD29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF29">
-        <v>0.54197300862982367</v>
+        <v>0.2010486245894833</v>
       </c>
       <c r="AG29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>-4.3421727068349076</v>
+        <v>-4.1559707459073136</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
       <c r="E30">
-        <v>4.0455872024513386</v>
+        <v>3.4919915446575178</v>
       </c>
       <c r="F30" t="s">
         <v>39</v>
       </c>
       <c r="H30">
-        <v>-6.8050135735051978</v>
+        <v>-2.3906810628231598</v>
       </c>
       <c r="I30" t="s">
         <v>3</v>
       </c>
       <c r="K30">
-        <v>-2.4200364883469931</v>
+        <v>-1.589496548228106</v>
       </c>
       <c r="L30" t="s">
         <v>3</v>
       </c>
       <c r="N30">
-        <v>1.981642203960668</v>
+        <v>1.4576847953850189</v>
       </c>
       <c r="O30" t="s">
         <v>39</v>
       </c>
       <c r="Q30">
-        <v>1.9115850768443969</v>
+        <v>1.8161349388682659</v>
       </c>
       <c r="R30" t="s">
         <v>44</v>
       </c>
       <c r="T30">
-        <v>1.723361209819094</v>
+        <v>1.4597189111879749</v>
       </c>
       <c r="U30" t="s">
         <v>46</v>
       </c>
       <c r="W30">
-        <v>-2.595045743501593</v>
+        <v>-1.3901000408629101</v>
       </c>
       <c r="X30" t="s">
         <v>39</v>
       </c>
       <c r="Z30">
-        <v>-2.2066279268961311</v>
+        <v>-1.9644950015552169</v>
       </c>
       <c r="AA30" t="s">
         <v>39</v>
       </c>
       <c r="AC30">
-        <v>0.44594112144298431</v>
+        <v>8.394601725964726E-2</v>
       </c>
       <c r="AD30" t="s">
         <v>46</v>
       </c>
       <c r="AF30">
-        <v>0.72297056072149213</v>
+        <v>0.54197300862982367</v>
       </c>
       <c r="AG30" t="s">
         <v>46</v>
@@ -2675,212 +2612,212 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>-3.7970854779280598</v>
+        <v>-4.3421727068349076</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>2.9050965503886239</v>
+        <v>4.0455872024513386</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
       </c>
       <c r="H31">
-        <v>-1.3619016148046761</v>
+        <v>-6.8050135735051978</v>
       </c>
       <c r="I31" t="s">
         <v>3</v>
       </c>
       <c r="K31">
-        <v>-1.285676010475479</v>
+        <v>-2.4200364883469931</v>
       </c>
       <c r="L31" t="s">
         <v>3</v>
       </c>
       <c r="N31">
-        <v>1.189189216942756</v>
+        <v>1.981642203960668</v>
       </c>
       <c r="O31" t="s">
         <v>39</v>
       </c>
       <c r="Q31">
-        <v>1.768795691926186</v>
+        <v>1.9115850768443969</v>
       </c>
       <c r="R31" t="s">
         <v>44</v>
       </c>
       <c r="T31">
-        <v>1.2446107377400111</v>
+        <v>1.723361209819094</v>
       </c>
       <c r="U31" t="s">
         <v>46</v>
       </c>
       <c r="W31">
-        <v>-1.213287448808362</v>
+        <v>-2.595045743501593</v>
       </c>
       <c r="X31" t="s">
         <v>39</v>
       </c>
       <c r="Z31">
-        <v>-1.632431542223403</v>
+        <v>-2.2066279268961311</v>
       </c>
       <c r="AA31" t="s">
         <v>39</v>
       </c>
       <c r="AC31">
-        <v>-3.1162065186422699E-2</v>
+        <v>0.44594112144298431</v>
       </c>
       <c r="AD31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF31">
-        <v>0.48441896740678858</v>
+        <v>0.72297056072149213</v>
       </c>
       <c r="AG31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>-4.5448170530907488</v>
+        <v>-3.7970854779280598</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>1.626897923077945</v>
+        <v>2.9050965503886239</v>
       </c>
       <c r="F32" t="s">
         <v>39</v>
       </c>
       <c r="H32">
-        <v>-3.4877455357058582</v>
+        <v>-1.3619016148046761</v>
       </c>
       <c r="I32" t="s">
         <v>3</v>
       </c>
       <c r="K32">
-        <v>-0.34012783501431437</v>
+        <v>-1.285676010475479</v>
       </c>
       <c r="L32" t="s">
         <v>3</v>
       </c>
       <c r="N32">
-        <v>1.386060725204165</v>
+        <v>1.189189216942756</v>
       </c>
       <c r="O32" t="s">
         <v>39</v>
       </c>
       <c r="Q32">
-        <v>1.925354283178593</v>
+        <v>1.768795691926186</v>
       </c>
       <c r="R32" t="s">
         <v>44</v>
       </c>
       <c r="T32">
-        <v>1.646392114398191</v>
+        <v>1.2446107377400111</v>
       </c>
       <c r="U32" t="s">
         <v>46</v>
       </c>
       <c r="W32">
-        <v>-1.213621773309729</v>
+        <v>-1.213287448808362</v>
       </c>
       <c r="X32" t="s">
         <v>39</v>
       </c>
       <c r="Z32">
-        <v>-1.0148474200910069</v>
+        <v>-1.632431542223403</v>
       </c>
       <c r="AA32" t="s">
         <v>39</v>
       </c>
       <c r="AC32">
-        <v>0.49833365653149442</v>
+        <v>-3.1162065186422699E-2</v>
       </c>
       <c r="AD32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF32">
-        <v>0.74916682826574721</v>
+        <v>0.48441896740678858</v>
       </c>
       <c r="AG32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>-3.7194336652462439</v>
+        <v>-4.5448170530907488</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>3.2821024491243298</v>
+        <v>1.626897923077945</v>
       </c>
       <c r="F33" t="s">
         <v>39</v>
       </c>
       <c r="H33">
-        <v>-4.5476153495567289</v>
+        <v>-3.4877455357058582</v>
       </c>
       <c r="I33" t="s">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>-1.37840428693969</v>
+        <v>-0.34012783501431437</v>
       </c>
       <c r="L33" t="s">
         <v>3</v>
       </c>
       <c r="N33">
-        <v>1.6909796684583009</v>
+        <v>1.386060725204165</v>
       </c>
       <c r="O33" t="s">
         <v>39</v>
       </c>
       <c r="Q33">
-        <v>1.982594277989751</v>
+        <v>1.925354283178593</v>
       </c>
       <c r="R33" t="s">
         <v>44</v>
       </c>
       <c r="T33">
-        <v>1.5237644661945751</v>
+        <v>1.646392114398191</v>
       </c>
       <c r="U33" t="s">
         <v>46</v>
       </c>
       <c r="W33">
-        <v>-1.970762840582448</v>
+        <v>-1.213621773309729</v>
       </c>
       <c r="X33" t="s">
         <v>39</v>
       </c>
       <c r="Z33">
-        <v>-2.318228858126723</v>
+        <v>-1.0148474200910069</v>
       </c>
       <c r="AA33" t="s">
         <v>39</v>
       </c>
       <c r="AC33">
-        <v>9.3569273818463222E-2</v>
+        <v>0.49833365653149442</v>
       </c>
       <c r="AD33" t="s">
         <v>46</v>
       </c>
       <c r="AF33">
-        <v>0.54678463690923162</v>
+        <v>0.74916682826574721</v>
       </c>
       <c r="AG33" t="s">
         <v>46</v>
@@ -2888,141 +2825,141 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>-5.7214672544566367</v>
+        <v>-3.7194336652462439</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>3.5026778235197762</v>
+        <v>3.2821024491243298</v>
       </c>
       <c r="F34" t="s">
         <v>39</v>
       </c>
       <c r="H34">
-        <v>-4.9901483337107786</v>
+        <v>-4.5476153495567289</v>
       </c>
       <c r="I34" t="s">
         <v>3</v>
       </c>
       <c r="K34">
-        <v>-2.1912932071294962</v>
+        <v>-1.37840428693969</v>
       </c>
       <c r="L34" t="s">
         <v>3</v>
       </c>
       <c r="N34">
-        <v>2.334791425003012</v>
+        <v>1.6909796684583009</v>
       </c>
       <c r="O34" t="s">
         <v>39</v>
       </c>
       <c r="Q34">
-        <v>2.51816066272746</v>
+        <v>1.982594277989751</v>
       </c>
       <c r="R34" t="s">
         <v>44</v>
       </c>
       <c r="T34">
-        <v>1.457415878450929</v>
+        <v>1.5237644661945751</v>
       </c>
       <c r="U34" t="s">
         <v>46</v>
       </c>
       <c r="W34">
-        <v>-1.956405099105593</v>
+        <v>-1.970762840582448</v>
       </c>
       <c r="X34" t="s">
         <v>39</v>
       </c>
       <c r="Z34">
-        <v>-3.0067741718015748</v>
+        <v>-2.318228858126723</v>
       </c>
       <c r="AA34" t="s">
         <v>39</v>
       </c>
       <c r="AC34">
-        <v>-0.68202387193738878</v>
+        <v>9.3569273818463222E-2</v>
       </c>
       <c r="AD34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF34">
-        <v>0.15898806403130561</v>
+        <v>0.54678463690923162</v>
       </c>
       <c r="AG34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>-4.1265870146612462</v>
+        <v>-5.7214672544566367</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>2.1656636093509269</v>
+        <v>3.5026778235197762</v>
       </c>
       <c r="F35" t="s">
         <v>39</v>
       </c>
       <c r="H35">
-        <v>-2.4307447629607331</v>
+        <v>-4.9901483337107786</v>
       </c>
       <c r="I35" t="s">
         <v>3</v>
       </c>
       <c r="K35">
-        <v>-2.8661421795876798</v>
+        <v>-2.1912932071294962</v>
       </c>
       <c r="L35" t="s">
         <v>3</v>
       </c>
       <c r="N35">
-        <v>1.22939872670496</v>
+        <v>2.334791425003012</v>
       </c>
       <c r="O35" t="s">
         <v>39</v>
       </c>
       <c r="Q35">
-        <v>1.430122364955736</v>
+        <v>2.51816066272746</v>
       </c>
       <c r="R35" t="s">
         <v>44</v>
       </c>
       <c r="T35">
-        <v>0.74611689988268226</v>
+        <v>1.457415878450929</v>
       </c>
       <c r="U35" t="s">
         <v>46</v>
       </c>
       <c r="W35">
-        <v>-1.0486137250861629</v>
+        <v>-1.956405099105593</v>
       </c>
       <c r="X35" t="s">
         <v>39</v>
       </c>
       <c r="Z35">
-        <v>-2.0731509406295401</v>
+        <v>-3.0067741718015748</v>
       </c>
       <c r="AA35" t="s">
         <v>39</v>
       </c>
       <c r="AC35">
-        <v>-1.0671766666012721</v>
+        <v>-0.68202387193738878</v>
       </c>
       <c r="AD35" t="s">
         <v>44</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>0.15898806403130561</v>
       </c>
       <c r="AG35" t="s">
         <v>44</v>
@@ -3030,72 +2967,143 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>-4.1265870146612462</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2.1656636093509269</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36">
+        <v>-2.4307447629607331</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>-2.8661421795876798</v>
+      </c>
+      <c r="L36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>1.22939872670496</v>
+      </c>
+      <c r="O36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36">
+        <v>1.430122364955736</v>
+      </c>
+      <c r="R36" t="s">
+        <v>44</v>
+      </c>
+      <c r="T36">
+        <v>0.74611689988268226</v>
+      </c>
+      <c r="U36" t="s">
+        <v>46</v>
+      </c>
+      <c r="W36">
+        <v>-1.0486137250861629</v>
+      </c>
+      <c r="X36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z36">
+        <v>-2.0731509406295401</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC36">
+        <v>-1.0671766666012721</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>-4.1052359624369563</v>
       </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36">
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37">
         <v>1.175326978636553</v>
       </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36">
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37">
         <v>-3.670746560168701</v>
       </c>
-      <c r="I36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36">
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37">
         <v>-3.5421903516284341</v>
       </c>
-      <c r="L36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N36">
+      <c r="L37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37">
         <v>1.5087160814786831</v>
       </c>
-      <c r="O36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q36">
+      <c r="O37" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37">
         <v>1.5781754304024189</v>
       </c>
-      <c r="R36" t="s">
-        <v>44</v>
-      </c>
-      <c r="T36">
+      <c r="R37" t="s">
+        <v>44</v>
+      </c>
+      <c r="T37">
         <v>1.2859625516232089</v>
       </c>
-      <c r="U36" t="s">
-        <v>46</v>
-      </c>
-      <c r="W36">
+      <c r="U37" t="s">
+        <v>46</v>
+      </c>
+      <c r="W37">
         <v>-1.7893276688110651</v>
       </c>
-      <c r="X36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z36">
+      <c r="X37" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z37">
         <v>-1.934526641416392</v>
       </c>
-      <c r="AA36" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC36">
+      <c r="AA37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC37">
         <v>-0.5150293729619243</v>
       </c>
-      <c r="AD36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF36">
+      <c r="AD37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF37">
         <v>0.24248531351903779</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AG37" t="s">
         <v>44</v>
       </c>
     </row>

--- a/outputs/fft-o__Bacteroidales_large_pruned_combined.xlsx
+++ b/outputs/fft-o__Bacteroidales_large_pruned_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B1CC21-C3F0-134C-B58E-355651053486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8462459-08D6-7447-AAD0-4E2DB12DD570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="52">
   <si>
     <t>f__Bacteroidaceae-f__Dysgonomonadaceae</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>d = 0.05, threshould |f(x)| by 0.9</t>
+  </si>
+  <si>
+    <t>reject</t>
   </si>
 </sst>
 </file>
@@ -538,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -684,13 +687,13 @@
         <v>8.2518625778594673E-2</v>
       </c>
       <c r="AD3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF3">
         <v>0.54125931288929729</v>
       </c>
       <c r="AG3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -707,7 +710,7 @@
         <v>0.77401352261569478</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>-3.7164662131730748</v>
@@ -761,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -826,13 +829,13 @@
         <v>0.1070905365997508</v>
       </c>
       <c r="AD5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF5">
         <v>0.55354526829987538</v>
       </c>
       <c r="AG5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -849,7 +852,7 @@
         <v>-0.37743055193635988</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>-6.3910239375747313</v>
@@ -897,13 +900,13 @@
         <v>-0.40917489787869249</v>
       </c>
       <c r="AD6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF6">
         <v>0.29541255106065378</v>
       </c>
       <c r="AG6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -938,7 +941,7 @@
         <v>0.72549968218657968</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q7">
         <v>0.9906180425236667</v>
@@ -950,7 +953,7 @@
         <v>0.83388215404061794</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W7">
         <v>-1.149134089165522</v>
@@ -968,13 +971,13 @@
         <v>-0.80012779254244704</v>
       </c>
       <c r="AD7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF7">
         <v>9.9936103728776482E-2</v>
       </c>
       <c r="AG7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -1039,13 +1042,13 @@
         <v>-0.67822489199642744</v>
       </c>
       <c r="AD8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF8">
         <v>0.16088755400178631</v>
       </c>
       <c r="AG8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -1110,13 +1113,13 @@
         <v>-0.7590078677360691</v>
       </c>
       <c r="AD9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF9">
         <v>0.12049606613196551</v>
       </c>
       <c r="AG9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -1151,7 +1154,7 @@
         <v>0.58423111567404051</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1.020409203072173</v>
@@ -1163,31 +1166,31 @@
         <v>0.59258664389981452</v>
       </c>
       <c r="U10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W10">
         <v>-0.60198107190601702</v>
       </c>
       <c r="X10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Z10">
         <v>-0.64837215609591825</v>
       </c>
       <c r="AA10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AC10">
         <v>-0.40227498495032582</v>
       </c>
       <c r="AD10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF10">
         <v>0.29886250752483712</v>
       </c>
       <c r="AG10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -1252,13 +1255,13 @@
         <v>-0.86059787061166604</v>
       </c>
       <c r="AD11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF11">
         <v>6.9701064694166981E-2</v>
       </c>
       <c r="AG11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -1287,7 +1290,7 @@
         <v>-0.39197531808585079</v>
       </c>
       <c r="L12" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>1.834806830620743</v>
@@ -1323,13 +1326,13 @@
         <v>5.3486445638248753E-2</v>
       </c>
       <c r="AD12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF12">
         <v>0.52674322281912433</v>
       </c>
       <c r="AG12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -1394,13 +1397,13 @@
         <v>0.32245668787673859</v>
       </c>
       <c r="AD13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF13">
         <v>0.66122834393836927</v>
       </c>
       <c r="AG13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
@@ -1465,13 +1468,13 @@
         <v>0.26779382956422909</v>
       </c>
       <c r="AD14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF14">
         <v>0.63389691478211452</v>
       </c>
       <c r="AG14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -1536,13 +1539,13 @@
         <v>-0.42327733045209093</v>
       </c>
       <c r="AD15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF15">
         <v>0.28836133477395448</v>
       </c>
       <c r="AG15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -1607,13 +1610,13 @@
         <v>0.48371804966345078</v>
       </c>
       <c r="AD16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF16">
         <v>0.74185902483172539</v>
       </c>
       <c r="AG16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
@@ -1678,13 +1681,13 @@
         <v>-0.45948681765755223</v>
       </c>
       <c r="AD17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF17">
         <v>0.27025659117122391</v>
       </c>
       <c r="AG17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
@@ -1749,13 +1752,13 @@
         <v>-0.27717709977848431</v>
       </c>
       <c r="AD18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF18">
         <v>0.36141145011075781</v>
       </c>
       <c r="AG18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
@@ -1820,13 +1823,13 @@
         <v>0.43650609898012388</v>
       </c>
       <c r="AD19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF19">
         <v>0.71825304949006197</v>
       </c>
       <c r="AG19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
@@ -1891,13 +1894,13 @@
         <v>-0.45652466391069318</v>
       </c>
       <c r="AD20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF20">
         <v>0.27173766804465338</v>
       </c>
       <c r="AG20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
@@ -1962,13 +1965,13 @@
         <v>-0.1185421096765062</v>
       </c>
       <c r="AD21" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF21">
         <v>0.44072894516174688</v>
       </c>
       <c r="AG21" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
@@ -2021,7 +2024,7 @@
         <v>-0.5881231209828659</v>
       </c>
       <c r="X22" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Z22">
         <v>-1.2755638172185439</v>
@@ -2033,13 +2036,13 @@
         <v>-7.8793082530671993E-2</v>
       </c>
       <c r="AD22" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF22">
         <v>0.46060345873466402</v>
       </c>
       <c r="AG22" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
@@ -2104,13 +2107,13 @@
         <v>0.63982177207051272</v>
       </c>
       <c r="AD23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF23">
         <v>0.81991088603525641</v>
       </c>
       <c r="AG23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
@@ -2175,13 +2178,13 @@
         <v>0.2259396798905467</v>
       </c>
       <c r="AD24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF24">
         <v>0.61296983994527332</v>
       </c>
       <c r="AG24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
@@ -2246,13 +2249,13 @@
         <v>-0.48498295387121598</v>
       </c>
       <c r="AD25" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF25">
         <v>0.25750852306439198</v>
       </c>
       <c r="AG25" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
@@ -2317,13 +2320,13 @@
         <v>-3.0317036476562559E-2</v>
       </c>
       <c r="AD26" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF26">
         <v>0.48484148176171871</v>
       </c>
       <c r="AG26" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
@@ -2394,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="AG27" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
@@ -2411,7 +2414,7 @@
         <v>0.51716160186629812</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H28">
         <v>-2.5977922028435319</v>
@@ -2459,13 +2462,13 @@
         <v>-0.46925520249334002</v>
       </c>
       <c r="AD28" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF28">
         <v>0.26537239875333002</v>
       </c>
       <c r="AG28" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
@@ -2530,13 +2533,13 @@
         <v>-0.59790275082103339</v>
       </c>
       <c r="AD29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF29">
         <v>0.2010486245894833</v>
       </c>
       <c r="AG29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
@@ -2601,13 +2604,13 @@
         <v>8.394601725964726E-2</v>
       </c>
       <c r="AD30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF30">
         <v>0.54197300862982367</v>
       </c>
       <c r="AG30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
@@ -2672,13 +2675,13 @@
         <v>0.44594112144298431</v>
       </c>
       <c r="AD31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF31">
         <v>0.72297056072149213</v>
       </c>
       <c r="AG31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
@@ -2743,13 +2746,13 @@
         <v>-3.1162065186422699E-2</v>
       </c>
       <c r="AD32" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF32">
         <v>0.48441896740678858</v>
       </c>
       <c r="AG32" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
@@ -2778,7 +2781,7 @@
         <v>-0.34012783501431437</v>
       </c>
       <c r="L33" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="N33">
         <v>1.386060725204165</v>
@@ -2814,13 +2817,13 @@
         <v>0.49833365653149442</v>
       </c>
       <c r="AD33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF33">
         <v>0.74916682826574721</v>
       </c>
       <c r="AG33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
@@ -2885,13 +2888,13 @@
         <v>9.3569273818463222E-2</v>
       </c>
       <c r="AD34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF34">
         <v>0.54678463690923162</v>
       </c>
       <c r="AG34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
@@ -2956,13 +2959,13 @@
         <v>-0.68202387193738878</v>
       </c>
       <c r="AD35" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF35">
         <v>0.15898806403130561</v>
       </c>
       <c r="AG35" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
@@ -3009,7 +3012,7 @@
         <v>0.74611689988268226</v>
       </c>
       <c r="U36" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W36">
         <v>-1.0486137250861629</v>
@@ -3033,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="AG36" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
@@ -3098,13 +3101,13 @@
         <v>-0.5150293729619243</v>
       </c>
       <c r="AD37" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AF37">
         <v>0.24248531351903779</v>
       </c>
       <c r="AG37" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/fft-o__Bacteroidales_large_pruned_combined.xlsx
+++ b/outputs/fft-o__Bacteroidales_large_pruned_combined.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8462459-08D6-7447-AAD0-4E2DB12DD570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B25C87-D657-1D43-A62F-C0D3218C2338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7240" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="g__C941_wrapper-LSVM" sheetId="1" r:id="rId1"/>
+    <sheet name="g__C941-LSVM-ovo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
